--- a/ML4cv.xlsx
+++ b/ML4cv.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madslun/Documents/Programmering/ML4CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C95B7A-D2D6-AF45-950C-403B8DA0D6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AD3E5E-48AA-974F-91F2-D7523283A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{0B9EFAA0-E7DB-664C-9D72-9A5E0502AD6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0B9EFAA0-E7DB-664C-9D72-9A5E0502AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
   <si>
     <t>Siamese</t>
   </si>
@@ -88,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,8 +128,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C4043"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +199,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -180,15 +232,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -200,11 +279,549 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C4043"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF70AD47"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF70AD47"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -609,24 +1226,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -733,6 +1332,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -747,6 +1364,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -762,61 +1397,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -989,7 +1570,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1023,21 +1640,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87C79B4B-BC62-BF47-B6CC-EDCF10BAD3B3}" name="Tabell3" displayName="Tabell3" ref="I12:J17" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87C79B4B-BC62-BF47-B6CC-EDCF10BAD3B3}" name="Tabell3" displayName="Tabell3" ref="I12:J17" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="I12:J17" xr:uid="{87C79B4B-BC62-BF47-B6CC-EDCF10BAD3B3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7874E2E7-814C-004D-A18E-2C8C7350899A}" name="Metrics" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{351103DA-0F50-B244-A258-31469D2B0EDB}" name="SVHN-MNIST MIX" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{7874E2E7-814C-004D-A18E-2C8C7350899A}" name="Metrics" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{351103DA-0F50-B244-A258-31469D2B0EDB}" name="SVHN-MNIST MIX" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{02CCDCE3-F56D-E54E-A016-D99EB88A74DE}" name="Tabell18" displayName="Tabell18" ref="F5:J10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="26">
+  <autoFilter ref="F5:J10" xr:uid="{02CCDCE3-F56D-E54E-A016-D99EB88A74DE}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9E71B471-2451-3848-AE4F-53AC7F5CBBA7}" name="Metrics" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{47151550-B31E-2048-9437-17759D2D0759}" name="SVHN-MNIST MIX" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3B5763CD-0D6E-4D4D-B878-B3D3FCC94478}" name="SVHN-MNIST" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0CF75FC6-6C36-ED40-B62D-E187128F8DCC}" name="MNIST" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{2064BAD9-60D3-1744-845F-7954BAB21C96}" name="SVHN" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{3046D059-0A0F-4045-95D2-AEFBF07CE27A}" name="Tabell19" displayName="Tabell19" ref="A15:B20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A15:B20" xr:uid="{3046D059-0A0F-4045-95D2-AEFBF07CE27A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CEBF0823-9462-9A42-880C-403CBCAEC04A}" name="Metrics" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0FD930B8-B6F7-A54F-8AD5-3F893FC70B7E}" name="SVHN-MNIST MIX" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DBC9E22C-5020-8540-9A0C-CD846C2B4566}" name="Tabell20" displayName="Tabell20" ref="C15:D20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="C15:D20" xr:uid="{DBC9E22C-5020-8540-9A0C-CD846C2B4566}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{39ABE3E0-1847-8A45-8D85-A38CF0AA3802}" name="Metrics" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E096726E-8B7E-314E-A087-571D7C9B58A5}" name="SVHN-MNIST MIX" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9C996A1-82C5-F54F-A7F2-A216DAB4D598}" name="Tabell4" displayName="Tabell4" ref="A3:E8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9C996A1-82C5-F54F-A7F2-A216DAB4D598}" name="Tabell4" displayName="Tabell4" ref="A3:E8" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A3:E8" xr:uid="{F9C996A1-82C5-F54F-A7F2-A216DAB4D598}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1046,32 +1711,32 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3785113-2F25-A044-9437-552C8B9E148F}" name="Metrics" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{AA09533D-192F-7044-AD47-D5F1DC1B52A3}" name="SVHN-MNIST MIX" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{6421DE69-D3A0-D448-8FD6-3D46D3CFA978}" name="SVHN-MNIST" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{7A668864-C038-E844-9A6A-17DADDDBA592}" name="MNIST" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5585B780-5118-C048-A2B8-9B84E4DCEA30}" name="SVHN" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{E3785113-2F25-A044-9437-552C8B9E148F}" name="Metrics" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{AA09533D-192F-7044-AD47-D5F1DC1B52A3}" name="SVHN-MNIST MIX" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{6421DE69-D3A0-D448-8FD6-3D46D3CFA978}" name="SVHN-MNIST" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{7A668864-C038-E844-9A6A-17DADDDBA592}" name="MNIST" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{5585B780-5118-C048-A2B8-9B84E4DCEA30}" name="SVHN" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D806144-EB19-0643-BAFF-0DBBCAA41D6D}" name="Tabell5" displayName="Tabell5" ref="I3:J8" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D806144-EB19-0643-BAFF-0DBBCAA41D6D}" name="Tabell5" displayName="Tabell5" ref="I3:J8" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="I3:J8" xr:uid="{2D806144-EB19-0643-BAFF-0DBBCAA41D6D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C9179F6E-84E0-9444-9220-29CDEB38A199}" name="Metrics" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{E63A0004-4F88-3241-B9FE-F36F11F596F1}" name="SVHN-MNIST MIX" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{C9179F6E-84E0-9444-9220-29CDEB38A199}" name="Metrics" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{E63A0004-4F88-3241-B9FE-F36F11F596F1}" name="SVHN-MNIST MIX" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A707A3F4-31B3-D54B-9A4A-A0063C52251E}" name="Tabell7" displayName="Tabell7" ref="A12:E17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A707A3F4-31B3-D54B-9A4A-A0063C52251E}" name="Tabell7" displayName="Tabell7" ref="A12:E17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A12:E17" xr:uid="{A707A3F4-31B3-D54B-9A4A-A0063C52251E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1080,61 +1745,81 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33D3732F-74F0-4048-8DDF-FB61B610EE28}" name="Metrics" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{BB65E7A4-98AC-A246-B324-502A8428136C}" name="SVHN-MNIST MIX" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{01A719E0-AA5F-C142-B699-81C9CE97E3F5}" name="SVHN-MNIST" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6D5ABC01-D03B-294F-B5E4-58992997FA4E}" name="MNIST" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{1FDFB625-404A-3746-B233-255B48787DCB}" name="SVHN" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{33D3732F-74F0-4048-8DDF-FB61B610EE28}" name="Metrics" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{BB65E7A4-98AC-A246-B324-502A8428136C}" name="SVHN-MNIST MIX" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{01A719E0-AA5F-C142-B699-81C9CE97E3F5}" name="SVHN-MNIST" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{6D5ABC01-D03B-294F-B5E4-58992997FA4E}" name="MNIST" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{1FDFB625-404A-3746-B233-255B48787DCB}" name="SVHN" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D4B343D7-6C36-084B-8F9A-6E177694F00A}" name="Tabell79" displayName="Tabell79" ref="A5:E10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D4B343D7-6C36-084B-8F9A-6E177694F00A}" name="Tabell79" displayName="Tabell79" ref="A5:E10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A5:E10" xr:uid="{D4B343D7-6C36-084B-8F9A-6E177694F00A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9FD19CA5-9251-E545-95FC-DB2DDA7C2B22}" name="Metrics" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{568CF66B-8387-7345-BE75-B1DA5D9110D9}" name="SVHN-MNIST MIX" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{20477432-A90B-3B4F-9372-C8BF40CAF2DE}" name="SVHN-MNIST" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{BF78202D-F4AE-BF43-982B-AB37A8C331CA}" name="MNIST" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5431BFFA-7AD6-874B-91BB-6D1A6F6E00D9}" name="SVHN" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{9FD19CA5-9251-E545-95FC-DB2DDA7C2B22}" name="Metrics" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{568CF66B-8387-7345-BE75-B1DA5D9110D9}" name="SVHN-MNIST MIX" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{20477432-A90B-3B4F-9372-C8BF40CAF2DE}" name="SVHN-MNIST" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{BF78202D-F4AE-BF43-982B-AB37A8C331CA}" name="MNIST" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{5431BFFA-7AD6-874B-91BB-6D1A6F6E00D9}" name="SVHN" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B0EB496F-710E-F249-9969-D626ABFC566B}" name="Tabell410" displayName="Tabell410" ref="F5:J10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B0EB496F-710E-F249-9969-D626ABFC566B}" name="Tabell410" displayName="Tabell410" ref="F5:J10" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="F5:J10" xr:uid="{B0EB496F-710E-F249-9969-D626ABFC566B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B93F1FA1-E88F-D84D-BFED-8CD69CD87214}" name="Metrics" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{75C97B80-4444-6E41-B718-CA0561314086}" name="SVHN-MNIST MIX" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4F670D1A-A9F0-C04B-89CC-E64D9C0BF633}" name="SVHN-MNIST" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6AF16985-A794-1A4B-A401-7A2C47F7DFCC}" name="MNIST" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B4908459-16FF-FD47-B76E-C5A7BDDFC5F5}" name="SVHN" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B93F1FA1-E88F-D84D-BFED-8CD69CD87214}" name="Metrics" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{75C97B80-4444-6E41-B718-CA0561314086}" name="SVHN-MNIST MIX" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{4F670D1A-A9F0-C04B-89CC-E64D9C0BF633}" name="SVHN-MNIST" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{6AF16985-A794-1A4B-A401-7A2C47F7DFCC}" name="MNIST" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{B4908459-16FF-FD47-B76E-C5A7BDDFC5F5}" name="SVHN" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8ED0EF5D-FBCB-A64C-8C7C-5495A43A9651}" name="Tabell511" displayName="Tabell511" ref="C15:D20" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8ED0EF5D-FBCB-A64C-8C7C-5495A43A9651}" name="Tabell511" displayName="Tabell511" ref="C15:D20" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="C15:D20" xr:uid="{8ED0EF5D-FBCB-A64C-8C7C-5495A43A9651}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B7A0E778-D230-9E43-A5D7-86821FAC9928}" name="Metrics" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C636B366-7910-B54A-AD9E-6B1EF41CF25D}" name="SVHN-MNIST MIX" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B7A0E778-D230-9E43-A5D7-86821FAC9928}" name="Metrics" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{C636B366-7910-B54A-AD9E-6B1EF41CF25D}" name="SVHN-MNIST MIX" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77128C6D-4A04-B242-AD71-89FEC11591F0}" name="Tabell312" displayName="Tabell312" ref="A15:B20" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77128C6D-4A04-B242-AD71-89FEC11591F0}" name="Tabell312" displayName="Tabell312" ref="A15:B20" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A15:B20" xr:uid="{77128C6D-4A04-B242-AD71-89FEC11591F0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E29A7429-B617-BC41-8B65-D396E6C9CACB}" name="Metrics" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FC7A2BF2-8D31-5841-AFBB-EB3F8D979DF8}" name="SVHN-MNIST MIX" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E29A7429-B617-BC41-8B65-D396E6C9CACB}" name="Metrics" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{FC7A2BF2-8D31-5841-AFBB-EB3F8D979DF8}" name="SVHN-MNIST MIX" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{57401187-88DC-4247-909F-9168CC26211A}" name="Tabell17" displayName="Tabell17" ref="A5:E10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="27">
+  <autoFilter ref="A5:E10" xr:uid="{57401187-88DC-4247-909F-9168CC26211A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4F7B8FAA-EB36-0B4E-AFB8-464E369F0EEC}" name="Metrics" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A3FAFF55-F32C-FC4F-A501-0C3D862AA909}" name="SVHN-MNIST MIX" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{11F1A48F-4168-0346-9072-17561A0DCB12}" name="SVHN-MNIST" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8A086C87-D12D-D944-8E18-379D16C52721}" name="MNIST" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A72C870C-9DA9-2F47-9CEB-BB181AD9C7B2}" name="SVHN" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1440,361 +2125,359 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J17"/>
+      <selection activeCell="I13" sqref="I13:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.93327499999999997</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.92697499999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0.98334999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.88249999999999995</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.88214642539964405</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.28781864047050398</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.35208308696746798</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>0.121079564094543</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.45137509703636097</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.39603176712989802</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.52743607759475697</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.47488570213317799</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>0.28236424922943099</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.58890980482101396</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.50510138273239102</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.9958146810531601</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.99208676815032</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.3300082683563201</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1.8504220247268599</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1.71813905239105</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.39623373746871898</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.41129192709922702</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.419993937015533</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.385001450777053</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.544502854347229</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>0.94310000000000005</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>0.95287500000000003</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>0.99180000000000001</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>0.91535</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.913118894316163</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>0.25974962115287697</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.223033502697944</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>8.8577307760715401E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.36612725257873502</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.31895881891250599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>0.478854209184646</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>0.44333216547965998</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>0.21268782019615101</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.57639867067337003</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>0.391786009073257</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>1.9985780715942301</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>2.0038812160491899</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>2.38937020301818</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>2.0106122493743799</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>1.70506119728088</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>0.30699557065963701</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>0.32521668076515198</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>0.44127601385116499</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>0.43864822387695301</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.52322828769683805</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1811,322 +2494,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513C6795-B189-E041-9607-65BB33D87E45}">
   <dimension ref="A3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>0.94310000000000005</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>0.95287500000000003</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0.99180000000000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.91535</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.93327499999999997</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.92697499999999999</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>0.98334999999999995</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.88249999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0.25974962115287697</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.223033502697944</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>8.8577307760715401E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.36612725257873502</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.28781864047050398</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.35208308696746798</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>0.121079564094543</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.45137509703636097</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.478854209184646</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.44333216547965998</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>0.21268782019615101</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.57639867067337003</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.52743607759475697</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.47488570213317799</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>0.28236424922943099</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.58890980482101396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>1.9985780715942301</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>2.0038812160491899</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>2.38937020301818</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>2.0106122493743799</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>1.9958146810531601</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>1.99208676815032</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>2.3300082683563201</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>1.8504220247268599</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0.30699557065963701</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.32521668076515198</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.44127601385116499</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0.43864822387695301</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.39623373746871898</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.41129192709922702</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.419993937015533</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>0.385001450777053</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.913118894316163</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.88214642539964405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.31895881891250599</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.39603176712989802</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.391786009073257</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.50510138273239102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1.70506119728088</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1.71813905239105</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.52322828769683805</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.544502854347229</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EBC34-5CD4-8E43-9543-93970D0DEC38}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="24"/>
+    <col min="7" max="7" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.93657500000000005</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.93587500000000001</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.8831</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.94567500000000004</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.94532499999999997</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.89485000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.28135213255882202</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.27326604723930298</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.112583972513675</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.486211538314819</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.241514652967453</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.26373693346977201</v>
+      </c>
+      <c r="I7" s="25">
+        <v>8.3147510886192294E-2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.43407034873962402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.50065302848815896</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.48627564311027499</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.27364215254783603</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.59094470739364602</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.48842465877532898</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.47671556472778298</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.22605651617050099</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.61683309078216497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1.9855101108551001</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1.96912229061126</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2.3303673267364502</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1.9279531240463199</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1.99850642681121</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2.1255006790161102</v>
+      </c>
+      <c r="I9" s="25">
+        <v>2.3471176624297998</v>
+      </c>
+      <c r="J9" s="25">
+        <v>2.0743019580840998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.38739216327667197</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.38974881172180098</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.54326319694518999</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.47045919299125599</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.335771113634109</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.40603414177894498</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.40576714277267401</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0.472502171993255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.89215142095914701</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.91507548845470599</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.363578021526336</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.286741703748703</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.44705769419670099</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.398548483848571</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1.65466427803039</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1.7353496551513601</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.55533719062805098</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.55151271820068304</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
